--- a/runs/run371/NotionalETEOutput371.xlsx
+++ b/runs/run371/NotionalETEOutput371.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX2_State_Update</t>
+    <t>Missile_HIGHWIND1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2_242.MISSILE_ANGERMAX2_242</t>
+    <t>MISSILE_HIGHWIND1_494.MISSILE_HIGHWIND1_494</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX2</t>
+    <t>MISSILE_HIGHWIND1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1527.828413951432</v>
+        <v>-1530.843010918084</v>
       </c>
       <c r="J2">
-        <v>2068.446859754762</v>
+        <v>2023.852293732241</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1491.419625981487</v>
+        <v>-1452.953316986457</v>
       </c>
       <c r="J3">
-        <v>2005.885750778429</v>
+        <v>2029.878469357621</v>
       </c>
       <c r="K3">
-        <v>302.3186631213111</v>
+        <v>310.1006649619548</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1393.543507371464</v>
+        <v>-1494.939221284004</v>
       </c>
       <c r="J4">
-        <v>1921.171646110664</v>
+        <v>1955.880481572287</v>
       </c>
       <c r="K4">
-        <v>598.4700364613698</v>
+        <v>620.9850150094629</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1456.791550387549</v>
+        <v>-1462.424654220032</v>
       </c>
       <c r="J5">
-        <v>1922.879880080219</v>
+        <v>1912.844340386626</v>
       </c>
       <c r="K5">
-        <v>903.8336430408297</v>
+        <v>887.0279985107879</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1380.245689683776</v>
+        <v>-1428.815133259887</v>
       </c>
       <c r="J6">
-        <v>1840.367908087306</v>
+        <v>1858.55840891007</v>
       </c>
       <c r="K6">
-        <v>1126.124464648214</v>
+        <v>1117.604624521916</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1368.280436787831</v>
+        <v>-1338.926189800345</v>
       </c>
       <c r="J7">
-        <v>1780.419143474739</v>
+        <v>1714.460722221074</v>
       </c>
       <c r="K7">
-        <v>1374.24406410087</v>
+        <v>1338.792485090633</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1316.917024714023</v>
+        <v>-1267.003011540446</v>
       </c>
       <c r="J8">
-        <v>1648.518464391708</v>
+        <v>1710.490183321853</v>
       </c>
       <c r="K8">
-        <v>1521.429732808273</v>
+        <v>1572.894040398476</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-96.49031837626063</v>
+        <v>-95.34471526973404</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1278.816462933457</v>
+        <v>-1237.574302018374</v>
       </c>
       <c r="J9">
-        <v>1715.872492061472</v>
+        <v>1588.810406848586</v>
       </c>
       <c r="K9">
-        <v>1853.306396508364</v>
+        <v>1724.737222622964</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.2317743636347</v>
+        <v>220.4188964706752</v>
       </c>
       <c r="G10">
-        <v>-87.6576726279385</v>
+        <v>-83.42902191319311</v>
       </c>
       <c r="H10">
-        <v>832.4595825974219</v>
+        <v>859.7762831575969</v>
       </c>
       <c r="I10">
-        <v>-1302.413055913493</v>
+        <v>-1258.727839798688</v>
       </c>
       <c r="J10">
-        <v>1654.250408727599</v>
+        <v>1554.473511606093</v>
       </c>
       <c r="K10">
-        <v>2007.383898796368</v>
+        <v>2051.236187360091</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>161.6724593059438</v>
+        <v>174.2559269611448</v>
       </c>
       <c r="G11">
-        <v>-70.19762258086335</v>
+        <v>-64.36804027205405</v>
       </c>
       <c r="H11">
-        <v>1041.210207189109</v>
+        <v>1061.732088044931</v>
       </c>
       <c r="I11">
-        <v>-1206.40620016127</v>
+        <v>-1169.67560262977</v>
       </c>
       <c r="J11">
-        <v>1484.35077302653</v>
+        <v>1538.949092914457</v>
       </c>
       <c r="K11">
-        <v>2288.514282927842</v>
+        <v>2133.978574555157</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>145.5936178196707</v>
+        <v>133.751277005828</v>
       </c>
       <c r="G12">
-        <v>-50.04427084474646</v>
+        <v>-49.60119637966132</v>
       </c>
       <c r="H12">
-        <v>1186.745649458384</v>
+        <v>1121.796179320979</v>
       </c>
       <c r="I12">
-        <v>-1198.52962371213</v>
+        <v>-1209.051713709838</v>
       </c>
       <c r="J12">
-        <v>1551.050592418067</v>
+        <v>1530.460287744751</v>
       </c>
       <c r="K12">
-        <v>2393.799197229243</v>
+        <v>2396.023538057773</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>117.4799910346636</v>
+        <v>126.6251281298767</v>
       </c>
       <c r="G13">
-        <v>-33.38537006906486</v>
+        <v>-35.48791722836265</v>
       </c>
       <c r="H13">
-        <v>1322.924924967513</v>
+        <v>1289.347764694793</v>
       </c>
       <c r="I13">
-        <v>-1101.298238507981</v>
+        <v>-1153.575462047878</v>
       </c>
       <c r="J13">
-        <v>1444.644652785916</v>
+        <v>1483.269716420694</v>
       </c>
       <c r="K13">
-        <v>2473.196578721517</v>
+        <v>2564.088915431461</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>114.4274965116715</v>
+        <v>109.2293747579212</v>
       </c>
       <c r="G14">
-        <v>-18.25833879004389</v>
+        <v>-16.7911996218578</v>
       </c>
       <c r="H14">
-        <v>1282.454377843501</v>
+        <v>1284.148521500884</v>
       </c>
       <c r="I14">
-        <v>-1133.698488779405</v>
+        <v>-1118.094844176473</v>
       </c>
       <c r="J14">
-        <v>1371.848959017802</v>
+        <v>1397.329653544891</v>
       </c>
       <c r="K14">
-        <v>2650.462951804629</v>
+        <v>2596.055570704484</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>98.83323033150099</v>
+        <v>98.47401823080256</v>
       </c>
       <c r="G15">
-        <v>-0.954217398265123</v>
+        <v>-0.94969059441655</v>
       </c>
       <c r="H15">
-        <v>1342.407970382354</v>
+        <v>1401.939684434655</v>
       </c>
       <c r="I15">
-        <v>-1045.222014355946</v>
+        <v>-1079.319946868312</v>
       </c>
       <c r="J15">
-        <v>1354.972967028074</v>
+        <v>1302.74642164316</v>
       </c>
       <c r="K15">
-        <v>2730.780316648306</v>
+        <v>2786.672774218732</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>92.23064003991965</v>
+        <v>91.33922072666985</v>
       </c>
       <c r="G16">
-        <v>15.51211450040557</v>
+        <v>15.50559774949434</v>
       </c>
       <c r="H16">
-        <v>1373.44076549126</v>
+        <v>1486.283798439116</v>
       </c>
       <c r="I16">
-        <v>-984.0034310522502</v>
+        <v>-987.030002050989</v>
       </c>
       <c r="J16">
-        <v>1383.0485534625</v>
+        <v>1333.855308605243</v>
       </c>
       <c r="K16">
-        <v>2862.08361998319</v>
+        <v>3003.017552087722</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>88.4404230129317</v>
+        <v>84.69668019967087</v>
       </c>
       <c r="G17">
-        <v>31.24600586025092</v>
+        <v>31.83823876868679</v>
       </c>
       <c r="H17">
-        <v>1432.080082308205</v>
+        <v>1411.071621213127</v>
       </c>
       <c r="I17">
-        <v>-931.6234196699484</v>
+        <v>-944.7803899478894</v>
       </c>
       <c r="J17">
-        <v>1332.255675082536</v>
+        <v>1303.093881507518</v>
       </c>
       <c r="K17">
-        <v>3094.65799965037</v>
+        <v>2932.04399563009</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.57646475765191</v>
+        <v>83.0564391674061</v>
       </c>
       <c r="G18">
-        <v>47.87075767185532</v>
+        <v>47.50255368594834</v>
       </c>
       <c r="H18">
-        <v>1450.524108750889</v>
+        <v>1490.676181457758</v>
       </c>
       <c r="I18">
-        <v>-966.6432792726521</v>
+        <v>-972.6997719313329</v>
       </c>
       <c r="J18">
-        <v>1207.190008597694</v>
+        <v>1282.31254869804</v>
       </c>
       <c r="K18">
-        <v>2947.490128848502</v>
+        <v>3026.458634965045</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.61784151381337</v>
+        <v>81.48503664620944</v>
       </c>
       <c r="G19">
-        <v>63.87581210406907</v>
+        <v>65.24676546682008</v>
       </c>
       <c r="H19">
-        <v>1554.290946009276</v>
+        <v>1550.417472772422</v>
       </c>
       <c r="I19">
-        <v>-912.8815259326058</v>
+        <v>-921.4009082421243</v>
       </c>
       <c r="J19">
-        <v>1218.224124788463</v>
+        <v>1142.132521944181</v>
       </c>
       <c r="K19">
-        <v>3216.153158653919</v>
+        <v>3028.579738097997</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>72.76333622020323</v>
+        <v>72.87271424528363</v>
       </c>
       <c r="G20">
-        <v>85.35367690500868</v>
+        <v>78.52002402651813</v>
       </c>
       <c r="H20">
-        <v>1554.714416984917</v>
+        <v>1506.427304433739</v>
       </c>
       <c r="I20">
-        <v>-866.0282599753206</v>
+        <v>-857.5809887824691</v>
       </c>
       <c r="J20">
-        <v>1073.170300669969</v>
+        <v>1133.540678641462</v>
       </c>
       <c r="K20">
-        <v>3124.69128553491</v>
+        <v>3001.525149724397</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>69.07696006678023</v>
+        <v>69.32442956467452</v>
       </c>
       <c r="G21">
-        <v>102.3840372744135</v>
+        <v>100.3827146640677</v>
       </c>
       <c r="H21">
-        <v>1646.203120621787</v>
+        <v>1530.849016930113</v>
       </c>
       <c r="I21">
-        <v>-759.114054189388</v>
+        <v>-815.7635607741356</v>
       </c>
       <c r="J21">
-        <v>1074.708203058035</v>
+        <v>1039.561489682425</v>
       </c>
       <c r="K21">
-        <v>3311.998212021867</v>
+        <v>3106.456784737034</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.19843940837302</v>
+        <v>66.51447260380614</v>
       </c>
       <c r="G22">
-        <v>111.6751609394393</v>
+        <v>117.8138491615161</v>
       </c>
       <c r="H22">
-        <v>1606.228723294166</v>
+        <v>1560.019299092264</v>
       </c>
       <c r="I22">
-        <v>-743.6987720144338</v>
+        <v>-759.2583968085492</v>
       </c>
       <c r="J22">
-        <v>1025.035131648921</v>
+        <v>1062.974766564313</v>
       </c>
       <c r="K22">
-        <v>3233.973957110813</v>
+        <v>3356.453169882512</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.0731718975734</v>
+        <v>63.81398318470477</v>
       </c>
       <c r="G23">
-        <v>132.4113172683798</v>
+        <v>127.5678849980352</v>
       </c>
       <c r="H23">
-        <v>1677.409653128899</v>
+        <v>1580.170164030558</v>
       </c>
       <c r="I23">
-        <v>-689.8437031028525</v>
+        <v>-691.9441603809291</v>
       </c>
       <c r="J23">
-        <v>1010.305941991938</v>
+        <v>952.446396758109</v>
       </c>
       <c r="K23">
-        <v>3187.611473578722</v>
+        <v>3268.16625385884</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.95203037339212</v>
+        <v>64.11913684792309</v>
       </c>
       <c r="G24">
-        <v>140.4308964688798</v>
+        <v>141.7285018931873</v>
       </c>
       <c r="H24">
-        <v>1675.536853327524</v>
+        <v>1697.524608223397</v>
       </c>
       <c r="I24">
-        <v>-676.1471718004503</v>
+        <v>-624.091182515363</v>
       </c>
       <c r="J24">
-        <v>943.3706067753194</v>
+        <v>940.8514015898429</v>
       </c>
       <c r="K24">
-        <v>3194.716054557947</v>
+        <v>3162.562899950265</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.44771089882226</v>
+        <v>60.62303321667053</v>
       </c>
       <c r="G25">
-        <v>159.5016660708113</v>
+        <v>157.3630875553918</v>
       </c>
       <c r="H25">
-        <v>1655.28437523046</v>
+        <v>1646.912513759061</v>
       </c>
       <c r="I25">
-        <v>-625.206294720317</v>
+        <v>-576.9690626526354</v>
       </c>
       <c r="J25">
-        <v>844.389961090943</v>
+        <v>855.8950370777768</v>
       </c>
       <c r="K25">
-        <v>3185.309070934555</v>
+        <v>3058.061285941605</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>61.3802973453823</v>
+        <v>58.1671169255584</v>
       </c>
       <c r="G26">
-        <v>173.1267306796435</v>
+        <v>183.4094128063207</v>
       </c>
       <c r="H26">
-        <v>1723.733201435249</v>
+        <v>1690.595837849726</v>
       </c>
       <c r="I26">
-        <v>-568.1087604267954</v>
+        <v>-522.1082346578563</v>
       </c>
       <c r="J26">
-        <v>873.6348731047252</v>
+        <v>800.0519422548421</v>
       </c>
       <c r="K26">
-        <v>2988.166101790217</v>
+        <v>3177.477882487576</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>58.08802763216791</v>
+        <v>56.68464597697982</v>
       </c>
       <c r="G27">
-        <v>200.7244943719806</v>
+        <v>189.7817032212927</v>
       </c>
       <c r="H27">
-        <v>1749.728848017984</v>
+        <v>1790.910347093947</v>
       </c>
       <c r="I27">
-        <v>-471.385095051242</v>
+        <v>-474.8140269596518</v>
       </c>
       <c r="J27">
-        <v>809.3099422802751</v>
+        <v>794.7725328475316</v>
       </c>
       <c r="K27">
-        <v>2914.320814809105</v>
+        <v>3014.530565352858</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.11015724164449</v>
+        <v>58.35197859118999</v>
       </c>
       <c r="G28">
-        <v>211.32551880106</v>
+        <v>215.2191719991561</v>
       </c>
       <c r="H28">
-        <v>1761.320416789764</v>
+        <v>1753.142877015802</v>
       </c>
       <c r="I28">
-        <v>-458.8757474013016</v>
+        <v>-452.8664512507259</v>
       </c>
       <c r="J28">
-        <v>764.6242864429144</v>
+        <v>709.3664109972951</v>
       </c>
       <c r="K28">
-        <v>3013.381432268939</v>
+        <v>2853.637316306747</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>55.96883456663047</v>
+        <v>56.42145626252722</v>
       </c>
       <c r="G29">
-        <v>228.9400777515975</v>
+        <v>237.3807377482624</v>
       </c>
       <c r="H29">
-        <v>1723.118049500568</v>
+        <v>1718.126575290813</v>
       </c>
       <c r="I29">
-        <v>-395.1721079706607</v>
+        <v>-399.5948189998747</v>
       </c>
       <c r="J29">
-        <v>683.3393387638363</v>
+        <v>704.1176714672699</v>
       </c>
       <c r="K29">
-        <v>2827.269729917873</v>
+        <v>3018.001251677451</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>52.69282478251721</v>
+        <v>51.38647271031507</v>
       </c>
       <c r="G30">
-        <v>251.2926149715746</v>
+        <v>239.1408488111173</v>
       </c>
       <c r="H30">
-        <v>1770.23102739103</v>
+        <v>1702.925180481565</v>
       </c>
       <c r="I30">
-        <v>-331.349576504415</v>
+        <v>-330.6705204324721</v>
       </c>
       <c r="J30">
-        <v>647.130661677105</v>
+        <v>663.715295767357</v>
       </c>
       <c r="K30">
-        <v>2893.412766378398</v>
+        <v>2641.207138721979</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>51.54988416218487</v>
+        <v>50.33322944953091</v>
       </c>
       <c r="G31">
-        <v>252.3745784703202</v>
+        <v>269.0206991383511</v>
       </c>
       <c r="H31">
-        <v>1743.908167193656</v>
+        <v>1772.143188454297</v>
       </c>
       <c r="I31">
-        <v>-276.9204509636064</v>
+        <v>-280.5632190271407</v>
       </c>
       <c r="J31">
-        <v>569.996620799957</v>
+        <v>600.9617711686494</v>
       </c>
       <c r="K31">
-        <v>2563.2254664812</v>
+        <v>2646.70864690021</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.55150749235077</v>
+        <v>49.89170506101985</v>
       </c>
       <c r="G32">
-        <v>269.7218311399376</v>
+        <v>274.392077063902</v>
       </c>
       <c r="H32">
-        <v>1781.487316605964</v>
+        <v>1737.390557765802</v>
       </c>
       <c r="I32">
-        <v>-208.6133128984337</v>
+        <v>-212.6574582510755</v>
       </c>
       <c r="J32">
-        <v>532.6055900595686</v>
+        <v>544.9723441993057</v>
       </c>
       <c r="K32">
-        <v>2463.407249009471</v>
+        <v>2404.696920271977</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>50.29666415143535</v>
+        <v>49.81876525948059</v>
       </c>
       <c r="G33">
-        <v>282.7778851808192</v>
+        <v>290.26463300968</v>
       </c>
       <c r="H33">
-        <v>1772.414160001843</v>
+        <v>1731.317743962652</v>
       </c>
       <c r="I33">
-        <v>-150.7681191008463</v>
+        <v>-145.8441133946477</v>
       </c>
       <c r="J33">
-        <v>484.3239887965461</v>
+        <v>474.0012469787826</v>
       </c>
       <c r="K33">
-        <v>2318.938188948368</v>
+        <v>2270.814977833523</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>48.50161950101601</v>
+        <v>49.7710018296814</v>
       </c>
       <c r="G34">
-        <v>327.8127037038902</v>
+        <v>312.1381104682691</v>
       </c>
       <c r="H34">
-        <v>1733.539065831065</v>
+        <v>1757.631064817878</v>
       </c>
       <c r="I34">
-        <v>-82.43232120162216</v>
+        <v>-85.85538403745622</v>
       </c>
       <c r="J34">
-        <v>433.465483076004</v>
+        <v>430.6959566635014</v>
       </c>
       <c r="K34">
-        <v>2281.326242409497</v>
+        <v>2147.095816837966</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>50.1810968125708</v>
+        <v>49.70092306108759</v>
       </c>
       <c r="G35">
-        <v>344.9451690553505</v>
+        <v>339.171514208385</v>
       </c>
       <c r="H35">
-        <v>1787.766652646695</v>
+        <v>1872.635200687391</v>
       </c>
       <c r="I35">
-        <v>-19.54257138947196</v>
+        <v>-18.58837061664265</v>
       </c>
       <c r="J35">
-        <v>376.0871196609605</v>
+        <v>393.7671786744709</v>
       </c>
       <c r="K35">
-        <v>1994.256027993735</v>
+        <v>2120.940045184107</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.04033742445113</v>
+        <v>47.58729061234593</v>
       </c>
       <c r="G36">
-        <v>349.655117086533</v>
+        <v>345.8243905251223</v>
       </c>
       <c r="H36">
-        <v>1795.939564720088</v>
+        <v>1854.274356769262</v>
       </c>
       <c r="I36">
-        <v>46.79489297453613</v>
+        <v>49.21567230465675</v>
       </c>
       <c r="J36">
-        <v>340.6203102366696</v>
+        <v>347.9169591442076</v>
       </c>
       <c r="K36">
-        <v>1817.9224082762</v>
+        <v>1850.412941801833</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>48.24037341954488</v>
+        <v>44.18400439182771</v>
       </c>
       <c r="G37">
-        <v>350.06192772168</v>
+        <v>378.6163584335378</v>
       </c>
       <c r="H37">
-        <v>1772.567019159642</v>
+        <v>1858.64241883976</v>
       </c>
       <c r="I37">
-        <v>115.9827645684117</v>
+        <v>112.1717792366439</v>
       </c>
       <c r="J37">
-        <v>294.624194701306</v>
+        <v>283.0866286982142</v>
       </c>
       <c r="K37">
-        <v>1556.888649167197</v>
+        <v>1694.129793265744</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.24400169391243</v>
+        <v>44.89999089823666</v>
       </c>
       <c r="G38">
-        <v>365.6171244132663</v>
+        <v>372.3422189306762</v>
       </c>
       <c r="H38">
-        <v>1865.022266507086</v>
+        <v>1880.885578317251</v>
       </c>
       <c r="I38">
-        <v>190.1791418317085</v>
+        <v>178.1272762439208</v>
       </c>
       <c r="J38">
-        <v>256.8844829307996</v>
+        <v>245.8212869832625</v>
       </c>
       <c r="K38">
-        <v>1378.425486108579</v>
+        <v>1334.587422704918</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.08544144908559</v>
+        <v>44.77116279739739</v>
       </c>
       <c r="G39">
-        <v>397.7098213886883</v>
+        <v>397.0348220760573</v>
       </c>
       <c r="H39">
-        <v>1844.684014836113</v>
+        <v>1829.785522637667</v>
       </c>
       <c r="I39">
-        <v>250.5013905954176</v>
+        <v>254.2784922091959</v>
       </c>
       <c r="J39">
-        <v>202.307083382734</v>
+        <v>203.7089769361628</v>
       </c>
       <c r="K39">
-        <v>1132.679998890439</v>
+        <v>1188.011056925343</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.46969004309911</v>
+        <v>44.6907418049764</v>
       </c>
       <c r="G40">
-        <v>395.7215529791795</v>
+        <v>398.1985388651982</v>
       </c>
       <c r="H40">
-        <v>1815.664260927425</v>
+        <v>1935.720942812396</v>
       </c>
       <c r="I40">
-        <v>318.7412665725136</v>
+        <v>323.5648783717965</v>
       </c>
       <c r="J40">
-        <v>154.3340553572875</v>
+        <v>148.1340211991243</v>
       </c>
       <c r="K40">
-        <v>932.3577568215006</v>
+        <v>928.3584193392293</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.92054883217921</v>
+        <v>45.42876759243956</v>
       </c>
       <c r="G41">
-        <v>414.5821528361388</v>
+        <v>445.4612540981059</v>
       </c>
       <c r="H41">
-        <v>1868.662670364462</v>
+        <v>1895.463499444087</v>
       </c>
       <c r="I41">
-        <v>396.1427836160341</v>
+        <v>422.0546749609501</v>
       </c>
       <c r="J41">
-        <v>98.2604985358778</v>
+        <v>97.9198858178425</v>
       </c>
       <c r="K41">
-        <v>640.0385181294696</v>
+        <v>592.5356151574027</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>40.74486239303233</v>
+        <v>42.121864123701</v>
       </c>
       <c r="G42">
-        <v>466.8967330491467</v>
+        <v>434.516017387723</v>
       </c>
       <c r="H42">
-        <v>1920.791314602936</v>
+        <v>1928.446000834994</v>
       </c>
       <c r="I42">
-        <v>496.5071895749986</v>
+        <v>480.5587877772217</v>
       </c>
       <c r="J42">
-        <v>51.33587675340883</v>
+        <v>53.62213535542969</v>
       </c>
       <c r="K42">
-        <v>334.1133375287574</v>
+        <v>339.5969070820641</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.76315844975339</v>
+        <v>40.6904014929364</v>
       </c>
       <c r="G43">
-        <v>454.7799612946486</v>
+        <v>464.3009535243965</v>
       </c>
       <c r="H43">
-        <v>1984.718966736465</v>
+        <v>1899.970808176427</v>
       </c>
       <c r="I43">
-        <v>565.4522010199322</v>
+        <v>547.6014213091385</v>
       </c>
       <c r="J43">
-        <v>5.090547626976758</v>
+        <v>5.171309523895954</v>
       </c>
       <c r="K43">
-        <v>34.48476055693731</v>
+        <v>32.41189402267796</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.98938398694679</v>
+        <v>43.18144128602762</v>
       </c>
       <c r="G44">
-        <v>489.6835297169918</v>
+        <v>492.4823809254557</v>
       </c>
       <c r="H44">
-        <v>1831.336832543142</v>
+        <v>1996.083200636264</v>
       </c>
       <c r="I44">
-        <v>616.6647368552318</v>
+        <v>633.9835087054373</v>
       </c>
       <c r="J44">
-        <v>-42.18857403867081</v>
+        <v>-45.01453353540888</v>
       </c>
       <c r="K44">
-        <v>-281.4856243561244</v>
+        <v>-290.3202427717617</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.10707200141459</v>
+        <v>40.57475028762868</v>
       </c>
       <c r="G45">
-        <v>480.9477661454387</v>
+        <v>492.3658318032807</v>
       </c>
       <c r="H45">
-        <v>1937.50775547504</v>
+        <v>1949.378565421015</v>
       </c>
       <c r="I45">
-        <v>694.2694623434016</v>
+        <v>691.2763050388104</v>
       </c>
       <c r="J45">
-        <v>-93.32591829327572</v>
+        <v>-89.02159504564614</v>
       </c>
       <c r="K45">
-        <v>-624.3915255233907</v>
+        <v>-632.0545226437004</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.57888097122205</v>
+        <v>41.36550731202119</v>
       </c>
       <c r="G46">
-        <v>526.8624695992301</v>
+        <v>522.2135762005233</v>
       </c>
       <c r="H46">
-        <v>1989.072496928969</v>
+        <v>1870.647818286891</v>
       </c>
       <c r="I46">
-        <v>792.7653338955113</v>
+        <v>797.1232579705884</v>
       </c>
       <c r="J46">
-        <v>-139.6404555316295</v>
+        <v>-138.2362747975214</v>
       </c>
       <c r="K46">
-        <v>-915.6010903127678</v>
+        <v>-996.5872443538619</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>38.21569815560031</v>
+        <v>39.48790730648987</v>
       </c>
       <c r="G47">
-        <v>531.601700365993</v>
+        <v>520.0224606032344</v>
       </c>
       <c r="H47">
-        <v>1934.536272376379</v>
+        <v>1876.721354599777</v>
       </c>
       <c r="I47">
-        <v>866.0371541401673</v>
+        <v>899.4542007494501</v>
       </c>
       <c r="J47">
-        <v>-195.3322236792306</v>
+        <v>-193.9546013338186</v>
       </c>
       <c r="K47">
-        <v>-1332.732858690163</v>
+        <v>-1352.764531236963</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.22899663793623</v>
+        <v>38.06728743418855</v>
       </c>
       <c r="G48">
-        <v>558.5569781319839</v>
+        <v>536.7847597330654</v>
       </c>
       <c r="H48">
-        <v>1998.563623719978</v>
+        <v>1895.776109875617</v>
       </c>
       <c r="I48">
-        <v>1013.112738756786</v>
+        <v>946.9976042722848</v>
       </c>
       <c r="J48">
-        <v>-247.7170592438011</v>
+        <v>-246.9673586287753</v>
       </c>
       <c r="K48">
-        <v>-1724.333946403504</v>
+        <v>-1689.776853071056</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>39.59689345280614</v>
+        <v>40.02332532841567</v>
       </c>
       <c r="G49">
-        <v>580.9222915018788</v>
+        <v>570.8807594912095</v>
       </c>
       <c r="H49">
-        <v>1931.583262002628</v>
+        <v>1951.459627268044</v>
       </c>
       <c r="I49">
-        <v>1080.182399974425</v>
+        <v>1075.997455992336</v>
       </c>
       <c r="J49">
-        <v>-298.7108449706208</v>
+        <v>-276.040693311717</v>
       </c>
       <c r="K49">
-        <v>-2004.22734388401</v>
+        <v>-2158.317551283818</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>38.56600092823007</v>
+        <v>37.37688653408561</v>
       </c>
       <c r="G50">
-        <v>601.6834075156053</v>
+        <v>573.332335776061</v>
       </c>
       <c r="H50">
-        <v>1899.13358393671</v>
+        <v>1914.503205818458</v>
       </c>
       <c r="I50">
-        <v>1179.928190098659</v>
+        <v>1184.704145280948</v>
       </c>
       <c r="J50">
-        <v>-351.5669222901568</v>
+        <v>-332.3038408657923</v>
       </c>
       <c r="K50">
-        <v>-2451.832829934514</v>
+        <v>-2521.114249668159</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>36.45600799542106</v>
+        <v>39.32067636022872</v>
       </c>
       <c r="G51">
-        <v>590.0252377381398</v>
+        <v>564.2839285381137</v>
       </c>
       <c r="H51">
-        <v>1983.071046432936</v>
+        <v>1905.310489446151</v>
       </c>
       <c r="I51">
-        <v>1204.674687549091</v>
+        <v>1315.160915897991</v>
       </c>
       <c r="J51">
-        <v>-394.4682189310855</v>
+        <v>-402.4511211804241</v>
       </c>
       <c r="K51">
-        <v>-3042.867635773126</v>
+        <v>-2806.433687096496</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.55926775483045</v>
+        <v>38.67655120936274</v>
       </c>
       <c r="G52">
-        <v>613.8940201957772</v>
+        <v>627.4586215956733</v>
       </c>
       <c r="H52">
-        <v>1908.238343125521</v>
+        <v>2002.825130617423</v>
       </c>
       <c r="I52">
-        <v>1372.803630850521</v>
+        <v>1370.165842831798</v>
       </c>
       <c r="J52">
-        <v>-446.0669010189847</v>
+        <v>-443.0840902124769</v>
       </c>
       <c r="K52">
-        <v>-3463.335039092511</v>
+        <v>-3475.227571664403</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>37.30968349727614</v>
+        <v>36.77097988382578</v>
       </c>
       <c r="G53">
-        <v>600.7840845468122</v>
+        <v>619.8955507004359</v>
       </c>
       <c r="H53">
-        <v>1897.624436447114</v>
+        <v>2043.223959803739</v>
       </c>
       <c r="I53">
-        <v>1514.570837245016</v>
+        <v>1401.03023107418</v>
       </c>
       <c r="J53">
-        <v>-471.1905755867879</v>
+        <v>-459.0258077559038</v>
       </c>
       <c r="K53">
-        <v>-3891.356534996537</v>
+        <v>-3641.643395648332</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.27069505971932</v>
+        <v>37.49693508573809</v>
       </c>
       <c r="G54">
-        <v>670.4910185527083</v>
+        <v>640.3831585808899</v>
       </c>
       <c r="H54">
-        <v>1949.948545446207</v>
+        <v>1936.801508098183</v>
       </c>
       <c r="I54">
-        <v>1571.815939734477</v>
+        <v>1604.723737394643</v>
       </c>
       <c r="J54">
-        <v>-545.4655768852655</v>
+        <v>-550.7867500858006</v>
       </c>
       <c r="K54">
-        <v>-4438.327866294066</v>
+        <v>-4117.545437218875</v>
       </c>
     </row>
   </sheetData>
